--- a/medicine/Médecine vétérinaire/Gasterophilus/Gasterophilus.xlsx
+++ b/medicine/Médecine vétérinaire/Gasterophilus/Gasterophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gasterophilus est un genre d'insectes diptères parasites appartenant à la famille des Oestridae.
 L'adulte dépose ses larves sur les membres d'équidés (chevaux, ânes...), de cervidés (caribous...) que ces animaux vont ensuite ingérer involontairement en se léchant ou en se grattant avec leurs dents . Les larves migrent ensuite jusqu'aux intestins, et seront éliminées par les fèces en fin de développement.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (11 mars 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (11 mars 2018) :
 Gasterophilus haemorrhoidalis (Linnaeus, 1758)
 Gasterophilus inermis (Brauer, 1858)
 Gasterophilus intestinalis (De Geer, 1776)
